--- a/plantilla_tiendas.xlsx
+++ b/plantilla_tiendas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\proyectos\hurchstexas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\proyectos\bobs-stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B72CB4-50EE-49C6-8E20-D3BE8BDACF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7604B533-580E-4FAB-A681-EBF4290E8901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9692F1F9-1F2F-4878-8C70-7C30679B8BC0}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
-    <t>shop_number</t>
-  </si>
-  <si>
     <t>shop_name</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>guest_cx_indicator</t>
+  </si>
+  <si>
+    <t>TOKEN</t>
   </si>
 </sst>
 </file>
@@ -666,7 +666,7 @@
   <dimension ref="A1:CE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,253 +677,253 @@
   <sheetData>
     <row r="1" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
